--- a/Task 2/sprawozdanie/Wartości dystrybuanty.xlsx
+++ b/Task 2/sprawozdanie/Wartości dystrybuanty.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciej Pracucik\Desktop\Repo\SISE\Task 2\sprawozdanie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A6CA92-698E-439C-A075-49A2E390153C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E2DAB2-AF52-455B-8C1D-33DE88B08E3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,16 +385,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -409,7697 +409,7697 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6.4977257959714096E-4</v>
+        <v>1.2987012987012987E-3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.9493177387914229E-3</v>
+        <v>1.2987012987012987E-3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.5990903183885639E-3</v>
+        <v>1.9480519480519481E-3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3.2488628979857048E-3</v>
+        <v>2.5974025974025974E-3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.8986354775828458E-3</v>
+        <v>3.246753246753247E-3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5.1981806367771277E-3</v>
+        <v>3.246753246753247E-3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8.4470435347628325E-3</v>
+        <v>4.5454545454545452E-3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.1046133853151396E-2</v>
+        <v>4.5454545454545452E-3</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.2345679012345678E-2</v>
+        <v>5.8441558441558444E-3</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.364522417153996E-2</v>
+        <v>8.4415584415584409E-3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1.4944769330734242E-2</v>
+        <v>9.0909090909090905E-3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.7543859649122806E-2</v>
+        <v>1.038961038961039E-2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1.9493177387914229E-2</v>
+        <v>1.1688311688311689E-2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2.1442495126705652E-2</v>
+        <v>1.4285714285714285E-2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2.4041585445094216E-2</v>
+        <v>1.6883116883116882E-2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2.4691358024691357E-2</v>
+        <v>2.012987012987013E-2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2.664067576348278E-2</v>
+        <v>2.2727272727272728E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3.0539311241065625E-2</v>
+        <v>2.6623376623376622E-2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3.1189083820662766E-2</v>
+        <v>3.1818181818181815E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3.3138401559454189E-2</v>
+        <v>3.7012987012987011E-2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3.5737491877842753E-2</v>
+        <v>4.1558441558441558E-2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3.7686809616634176E-2</v>
+        <v>4.6103896103896105E-2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4.1585445094217022E-2</v>
+        <v>4.8701298701298704E-2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4.2235217673814163E-2</v>
+        <v>5.4545454545454543E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4.6783625730994149E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4.9382716049382713E-2</v>
+        <v>5.844155844155844E-2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5.1981806367771277E-2</v>
+        <v>6.1688311688311688E-2</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5.2631578947368418E-2</v>
+        <v>6.6883116883116878E-2</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5.6530214424951264E-2</v>
+        <v>7.0779220779220775E-2</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6.1728395061728392E-2</v>
+        <v>7.4025974025974023E-2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6.6276803118908378E-2</v>
+        <v>7.9220779220779219E-2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6.757634827810266E-2</v>
+        <v>8.3766233766233766E-2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6.9525666016894083E-2</v>
+        <v>9.1558441558441561E-2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>7.1474983755685506E-2</v>
+        <v>9.7402597402597407E-2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7.2774528914879788E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7.3424301494476929E-2</v>
+        <v>0.10194805194805195</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>7.6673164392462634E-2</v>
+        <v>0.10519480519480519</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7.8622482131254057E-2</v>
+        <v>0.10844155844155844</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8.1871345029239762E-2</v>
+        <v>0.11168831168831168</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>8.3170890188434043E-2</v>
+        <v>0.11753246753246753</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>8.5769980506822607E-2</v>
+        <v>0.12142857142857143</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>8.8369070825211171E-2</v>
+        <v>0.12857142857142856</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9.4866796621182581E-2</v>
+        <v>0.13896103896103895</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>9.8765432098765427E-2</v>
+        <v>0.14545454545454545</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.10071474983755685</v>
+        <v>0.15194805194805194</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.10266406757634827</v>
+        <v>0.15844155844155844</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.1046133853151397</v>
+        <v>0.16688311688311688</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.10916179337231968</v>
+        <v>0.16948051948051948</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.11371020142949967</v>
+        <v>0.17597402597402598</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.11760883690708251</v>
+        <v>0.18051948051948052</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.12345679012345678</v>
+        <v>0.18701298701298702</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.12800519818063677</v>
+        <v>0.19350649350649352</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.13190383365821962</v>
+        <v>0.19740259740259741</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.13840155945419103</v>
+        <v>0.20064935064935066</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.14294996751137101</v>
+        <v>0.20259740259740261</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.1507472384665367</v>
+        <v>0.20909090909090908</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.15334632878492527</v>
+        <v>0.21168831168831168</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.15594541910331383</v>
+        <v>0.21558441558441557</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.1585445094217024</v>
+        <v>0.21818181818181817</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.16309291747888238</v>
+        <v>0.22272727272727272</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.16634178037686809</v>
+        <v>0.22662337662337662</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.17024041585445093</v>
+        <v>0.23246753246753246</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.1760883690708252</v>
+        <v>0.23766233766233766</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.17868745938921377</v>
+        <v>0.24805194805194805</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.18193632228719947</v>
+        <v>0.25324675324675322</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.18778427550357374</v>
+        <v>0.26038961038961039</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.19558154645873943</v>
+        <v>0.26363636363636361</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.19883040935672514</v>
+        <v>0.26753246753246751</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.2046783625730994</v>
+        <v>0.27467532467532468</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.21182586094866795</v>
+        <v>0.28116883116883118</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.21637426900584794</v>
+        <v>0.28636363636363638</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.22417153996101363</v>
+        <v>0.2896103896103896</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.23456790123456789</v>
+        <v>0.29480519480519479</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.24236517218973358</v>
+        <v>0.30064935064935067</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.25406107862248212</v>
+        <v>0.30259740259740259</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.26185834957764781</v>
+        <v>0.30649350649350648</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.27030539311241064</v>
+        <v>0.31103896103896106</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.27680311890838205</v>
+        <v>0.31558441558441558</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.28654970760233917</v>
+        <v>0.31688311688311688</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.29369720597790772</v>
+        <v>0.31883116883116885</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.29759584145549056</v>
+        <v>0.32337662337662337</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.29954515919428198</v>
+        <v>0.32467532467532467</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.30214424951267055</v>
+        <v>0.32987012987012987</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.30734243014944768</v>
+        <v>0.33116883116883117</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.31189083820662766</v>
+        <v>0.33311688311688314</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.31838856400259907</v>
+        <v>0.33636363636363636</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.32488628979857048</v>
+        <v>0.33961038961038958</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.32943469785575047</v>
+        <v>0.34220779220779218</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.3346328784925276</v>
+        <v>0.34545454545454546</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.34178037686809615</v>
+        <v>0.34805194805194806</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.35087719298245612</v>
+        <v>0.35064935064935066</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.35607537361923325</v>
+        <v>0.35324675324675325</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.36127355425601038</v>
+        <v>0.35844155844155845</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.36452241715399608</v>
+        <v>0.36233766233766235</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.37296946068875891</v>
+        <v>0.36558441558441557</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.38076673164392461</v>
+        <v>0.36883116883116884</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.38596491228070173</v>
+        <v>0.37142857142857144</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.39506172839506171</v>
+        <v>0.37272727272727274</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.4028589993502274</v>
+        <v>0.37857142857142856</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.41065627030539309</v>
+        <v>0.38246753246753246</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.41455490578297594</v>
+        <v>0.38701298701298703</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.4204028589993502</v>
+        <v>0.38896103896103895</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.42365172189733591</v>
+        <v>0.39285714285714285</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.43274853801169588</v>
+        <v>0.39480519480519483</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.43664717348927873</v>
+        <v>0.39935064935064934</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.44184535412605586</v>
+        <v>0.40324675324675324</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.4457439896036387</v>
+        <v>0.40519480519480522</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.45224171539961011</v>
+        <v>0.41168831168831171</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.4567901234567901</v>
+        <v>0.41948051948051945</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0.46068875893437294</v>
+        <v>0.42272727272727273</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0.46263807667316437</v>
+        <v>0.42532467532467533</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0.46393762183235865</v>
+        <v>0.43181818181818182</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>0.46523716699155293</v>
+        <v>0.43766233766233764</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>0.47043534762833006</v>
+        <v>0.44350649350649352</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>0.4743339831059129</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>0.48148148148148145</v>
+        <v>0.45259740259740261</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>0.48797920727745286</v>
+        <v>0.45909090909090911</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>0.49317738791422999</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>0.5035737491877843</v>
+        <v>0.4694805194805195</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>0.5107212475633528</v>
+        <v>0.47142857142857142</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>0.52306692657569853</v>
+        <v>0.47662337662337662</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>0.53216374269005851</v>
+        <v>0.48636363636363639</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>0.54645873944119561</v>
+        <v>0.49220779220779221</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>0.55100714749837554</v>
+        <v>0.49675324675324678</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>0.56010396361273551</v>
+        <v>0.50714285714285712</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.56530214424951264</v>
+        <v>0.51558441558441559</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0.5685510071474984</v>
+        <v>0.52142857142857146</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>0.57634827810266409</v>
+        <v>0.52662337662337666</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.58349577647823259</v>
+        <v>0.5331168831168831</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.59259259259259256</v>
+        <v>0.54480519480519485</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.60038986354775825</v>
+        <v>0.55519480519480524</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0.60688758934372966</v>
+        <v>0.5662337662337662</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0.61273554256010399</v>
+        <v>0.57792207792207795</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0.6185834957764782</v>
+        <v>0.58571428571428574</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.62443144899285252</v>
+        <v>0.59090909090909094</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0.62638076673164389</v>
+        <v>0.59805194805194806</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0.62897985705003245</v>
+        <v>0.60324675324675325</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>0.6335282651072125</v>
+        <v>0.61168831168831173</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>0.64002599090318391</v>
+        <v>0.61623376623376624</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>0.64522417153996103</v>
+        <v>0.62337662337662336</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>0.65432098765432101</v>
+        <v>0.62922077922077924</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>0.6614684860298895</v>
+        <v>0.63831168831168827</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>0.66276803118908378</v>
+        <v>0.64870129870129867</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>0.66471734892787526</v>
+        <v>0.6532467532467533</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>0.66991552956465239</v>
+        <v>0.66428571428571426</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>0.67381416504223524</v>
+        <v>0.67532467532467533</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>0.6764132553606238</v>
+        <v>0.67987012987012985</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>0.68486029889538658</v>
+        <v>0.6837662337662338</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>0.68745938921377514</v>
+        <v>0.68961038961038956</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>0.69200779727095518</v>
+        <v>0.69805194805194803</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0.69850552306692659</v>
+        <v>0.70194805194805199</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.70045484080571796</v>
+        <v>0.70584415584415583</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>0.70825211176088365</v>
+        <v>0.70649350649350651</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.71280051981806369</v>
+        <v>0.71038961038961035</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.7192982456140351</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>0.72319688109161795</v>
+        <v>0.71558441558441555</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0.72839506172839508</v>
+        <v>0.7220779220779221</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>0.73424301494476929</v>
+        <v>0.72662337662337662</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0.73879142300194933</v>
+        <v>0.73701298701298701</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0.74398960363872646</v>
+        <v>0.73961038961038961</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>0.74658869395711502</v>
+        <v>0.7448051948051948</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>0.74788823911630931</v>
+        <v>0.74870129870129876</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>0.74853801169590639</v>
+        <v>0.75324675324675328</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>0.74983755685510067</v>
+        <v>0.75844155844155847</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>0.75308641975308643</v>
+        <v>0.76493506493506491</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>0.75698505523066928</v>
+        <v>0.76818181818181819</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>0.75958414554905784</v>
+        <v>0.77207792207792203</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>0.76153346328784921</v>
+        <v>0.77922077922077926</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>0.76413255360623777</v>
+        <v>0.78246753246753242</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>0.76738141650422353</v>
+        <v>0.7883116883116883</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>0.77128005198180638</v>
+        <v>0.79285714285714282</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>0.77517868745938923</v>
+        <v>0.79805194805194801</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>0.77842755035737488</v>
+        <v>0.80064935064935061</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>0.78232618583495772</v>
+        <v>0.80649350649350648</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>0.78557504873294348</v>
+        <v>0.80909090909090908</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>0.78752436647173485</v>
+        <v>0.81168831168831168</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>0.78947368421052633</v>
+        <v>0.81493506493506496</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>0.79337231968810917</v>
+        <v>0.8162337662337662</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.79402209226770626</v>
+        <v>0.82272727272727275</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.7985705003248863</v>
+        <v>0.82597402597402603</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.80376868096166343</v>
+        <v>0.82597402597402603</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>0.80896686159844056</v>
+        <v>0.82727272727272727</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0.81351526965562049</v>
+        <v>0.83116883116883122</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0.81741390513320333</v>
+        <v>0.83181818181818179</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>0.8200129954515919</v>
+        <v>0.83246753246753247</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>0.82456140350877194</v>
+        <v>0.83246753246753247</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>0.8271604938271605</v>
+        <v>0.83311688311688314</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>0.82910981156595187</v>
+        <v>0.83506493506493507</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>0.83040935672514615</v>
+        <v>0.83831168831168834</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>0.83300844704353472</v>
+        <v>0.84025974025974026</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>0.83625730994152048</v>
+        <v>0.84480519480519478</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>0.84015594541910332</v>
+        <v>0.8467532467532467</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>0.84405458089668617</v>
+        <v>0.84740259740259738</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>0.84470435347628325</v>
+        <v>0.84740259740259738</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.84470435347628325</v>
+        <v>0.8493506493506493</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0.84535412605588045</v>
+        <v>0.8493506493506493</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.84665367121507473</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0.84665367121507473</v>
+        <v>0.85064935064935066</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0.84730344379467182</v>
+        <v>0.8519480519480519</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>0.84730344379467182</v>
+        <v>0.85259740259740258</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>0.84730344379467182</v>
+        <v>0.85324675324675325</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0.84795321637426901</v>
+        <v>0.85389610389610393</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>0.8486029889538661</v>
+        <v>0.85389610389610393</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>0.8492527615334633</v>
+        <v>0.85584415584415585</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>0.84990253411306038</v>
+        <v>0.85584415584415585</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>0.85185185185185186</v>
+        <v>0.85844155844155845</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>0.85250162443144895</v>
+        <v>0.85909090909090913</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>0.85250162443144895</v>
+        <v>0.86038961038961037</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>0.85250162443144895</v>
+        <v>0.86038961038961037</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>0.85315139701104614</v>
+        <v>0.86363636363636365</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>0.85575048732943471</v>
+        <v>0.86558441558441557</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>0.85575048732943471</v>
+        <v>0.87012987012987009</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>0.85769980506822607</v>
+        <v>0.87402597402597404</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>0.85899935022742036</v>
+        <v>0.87532467532467528</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>0.86029889538661464</v>
+        <v>0.87662337662337664</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>0.86029889538661464</v>
+        <v>0.87987012987012991</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>0.86224821312540612</v>
+        <v>0.88311688311688308</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>0.86224821312540612</v>
+        <v>0.88571428571428568</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>0.8628979857050032</v>
+        <v>0.89090909090909087</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>0.8635477582846004</v>
+        <v>0.89610389610389607</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>0.86419753086419748</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>0.86419753086419748</v>
+        <v>0.90649350649350646</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>0.86744639376218324</v>
+        <v>0.90844155844155849</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.87004548408057181</v>
+        <v>0.91168831168831166</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.87264457439896037</v>
+        <v>0.91428571428571426</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.87394411955815465</v>
+        <v>0.91558441558441561</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.8771929824561403</v>
+        <v>0.91948051948051945</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.87914230019493178</v>
+        <v>0.92272727272727273</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>0.88044184535412606</v>
+        <v>0.92532467532467533</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>0.88304093567251463</v>
+        <v>0.92792207792207793</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>0.88499025341130599</v>
+        <v>0.93311688311688312</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>0.88693957115009747</v>
+        <v>0.93571428571428572</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>0.89018843404808312</v>
+        <v>0.93961038961038956</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>0.89408706952566597</v>
+        <v>0.94285714285714284</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>0.89473684210526316</v>
+        <v>0.94415584415584419</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>0.89993502274204029</v>
+        <v>0.94740259740259736</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>0.90513320337881742</v>
+        <v>0.95064935064935063</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>0.90838206627680307</v>
+        <v>0.95259740259740255</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>0.91747888239116304</v>
+        <v>0.95584415584415583</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>0.92007797270955161</v>
+        <v>0.95649350649350651</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>0.92267706302794017</v>
+        <v>0.95714285714285718</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>0.92592592592592593</v>
+        <v>0.95909090909090911</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>0.92982456140350878</v>
+        <v>0.9616883116883117</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.93307342430149443</v>
+        <v>0.9616883116883117</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0.93697205977907727</v>
+        <v>0.9616883116883117</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>0.9421702404158544</v>
+        <v>0.9616883116883117</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>0.94606887589343724</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>0.949317738791423</v>
+        <v>0.96558441558441555</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>0.95126705653021437</v>
+        <v>0.9668831168831169</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>0.95451591942820013</v>
+        <v>0.9668831168831169</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>0.9564652371669915</v>
+        <v>0.96818181818181814</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>0.9571150097465887</v>
+        <v>0.96818181818181814</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>0.95906432748538006</v>
+        <v>0.9694805194805195</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>0.95906432748538006</v>
+        <v>0.97077922077922074</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>0.96036387264457435</v>
+        <v>0.97142857142857142</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>0.96101364522417154</v>
+        <v>0.97272727272727277</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>0.96361273554256011</v>
+        <v>0.97402597402597402</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>0.96426250812215719</v>
+        <v>0.97532467532467537</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>0.96491228070175439</v>
+        <v>0.97727272727272729</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>0.96816114359974004</v>
+        <v>0.97727272727272729</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>0.97270955165692008</v>
+        <v>0.97792207792207797</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>0.97660818713450293</v>
+        <v>0.97792207792207797</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>0.97725795971410001</v>
+        <v>0.98051948051948057</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>0.97920727745289149</v>
+        <v>0.98116883116883113</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>0.98050682261208577</v>
+        <v>0.98246753246753249</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>0.98245614035087714</v>
+        <v>0.98311688311688317</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>0.9850552306692657</v>
+        <v>0.98441558441558441</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>0.98635477582845998</v>
+        <v>0.98571428571428577</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>0.98700454840805718</v>
+        <v>0.98701298701298701</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>0.98700454840805718</v>
+        <v>0.98766233766233769</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>0.98960363872644574</v>
+        <v>0.98766233766233769</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>0.99155295646523711</v>
+        <v>0.98896103896103893</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>0.99285250162443139</v>
+        <v>0.99025974025974028</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>0.99350227420402859</v>
+        <v>0.99090909090909096</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>0.99480181936322287</v>
+        <v>0.99220779220779221</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>0.99675113710201424</v>
+        <v>0.99220779220779221</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>0.99675113710201424</v>
+        <v>0.99220779220779221</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>0.99675113710201424</v>
+        <v>0.99220779220779221</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>0.99740090968161144</v>
+        <v>0.99285714285714288</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>0.99805068226120852</v>
+        <v>0.99285714285714288</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>0.99805068226120852</v>
+        <v>0.99285714285714288</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>0.99870045484080572</v>
+        <v>0.99415584415584413</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>1</v>
+        <v>0.99415584415584413</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>1.0006497725795971</v>
+        <v>0.9948051948051948</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>1.0006497725795971</v>
+        <v>0.9948051948051948</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>1.0006497725795971</v>
+        <v>0.9948051948051948</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>1.0006497725795971</v>
+        <v>0.99545454545454548</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>1.0006497725795971</v>
+        <v>0.99545454545454548</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>1.0006497725795971</v>
+        <v>0.99545454545454548</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>1.0006497725795971</v>
+        <v>0.9974025974025974</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>1.0006497725795971</v>
+        <v>0.99805194805194808</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>1.0006497725795971</v>
+        <v>0.99805194805194808</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>1.0006497725795971</v>
+        <v>0.99805194805194808</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>1.0006497725795971</v>
+        <v>0.99805194805194808</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>1.0006497725795971</v>
+        <v>0.99805194805194808</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>1.0006497725795971</v>
+        <v>0.99870129870129876</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>1.0006497725795971</v>
+        <v>0.99935064935064932</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>1.0006497725795971</v>
+        <v>0.99935064935064932</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>1.0006497725795971</v>
+        <v>0.99935064935064932</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>1.0006497725795971</v>
+        <v>0.99935064935064932</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>1.0006497725795971</v>
+        <v>0.99935064935064932</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>1.0006497725795971</v>
+        <v>0.99935064935064932</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1105">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1107">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1108">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1109">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1110">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1111">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1112">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1113">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1117">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1118">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1120">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1121">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1122">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1123">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1124">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1125">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1126">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1127">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1128">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1129">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1130">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1131">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1132">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1134">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1136">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1138">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1141">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1145">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1146">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1147">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1148">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1149">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1150">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1151">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1152">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1153">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1154">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1155">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1156">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1159">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1160">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1162">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1163">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1164">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1168">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1172">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1173">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1174">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1175">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1176">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1177">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1178">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1179">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1180">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1181">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1182">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1183">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1184">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1185">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1186">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1187">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1188">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1189">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1190">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1191">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1192">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1193">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1194">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1195">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1196">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1197">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1198">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1199">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1200">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1201">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1202">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1204">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1205">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1206">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1208">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1209">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1210">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1211">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1212">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1213">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1214">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1215">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1216">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1217">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1218">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1219">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1223">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1224">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1225">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1226">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1227">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1228">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1229">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1230">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1231">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1232">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1233">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1234">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1235">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1236">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1237">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1238">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1239">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1240">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1241">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1242">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1243">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1244">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1245">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1247">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1248">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1249">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1250">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1251">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1252">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1253">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1254">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1255">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1256">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1257">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1258">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1259">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1260">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1261">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1262">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1263">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1264">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1265">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1266">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1267">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1268">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1269">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1270">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1271">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1272">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1273">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1274">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1275">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1276">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1277">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1278">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1279">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1280">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1281">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1282">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1283">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1284">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1285">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1286">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1287">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1288">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1289">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1290">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1291">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1292">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1293">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1294">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1295">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1296">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1297">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1298">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1299">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1300">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1301">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1302">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1303">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1304">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1306">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1307">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1308">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1309">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1310">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1311">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1312">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1313">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1314">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1315">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1316">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1317">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1318">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1319">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1320">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1321">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1322">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1323">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1324">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1325">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1326">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1327">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1328">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1329">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1330">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1331">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1332">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1333">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1334">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1335">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1336">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1337">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1338">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1339">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1340">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1341">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1342">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1343">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1344">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1345">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1346">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1347">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1348">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1349">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1350">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1351">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1352">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1353">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1354">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1355">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1356">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1357">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1358">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1359">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1360">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1361">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1362">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1363">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1364">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1365">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1366">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1367">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1368">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1369">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1370">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1371">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1372">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1373">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1374">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1375">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1376">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1377">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1378">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1379">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1380">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1381">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1382">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1383">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1384">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1385">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1386">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1387">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1388">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1389">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1390">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1391">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1392">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1393">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1394">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1395">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1396">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1397">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1398">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1399">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1400">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1401">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1402">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1403">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1404">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1405">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1406">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1407">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1408">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1409">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1410">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1411">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1412">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1413">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1414">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1415">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1416">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1417">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1418">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1419">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1420">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1421">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1422">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1423">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1424">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1425">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1426">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1427">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1428">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1429">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1430">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1431">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1432">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1433">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1434">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1435">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1436">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1437">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1438">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1439">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1440">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1441">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1442">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1443">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1444">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1445">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1446">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1447">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1448">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1449">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1450">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1451">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1452">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1453">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1454">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1455">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1456">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1457">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1458">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1459">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1460">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1461">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1462">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1463">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1464">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1465">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1466">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1467">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1468">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1469">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1470">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1471">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1472">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1473">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1474">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1475">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1476">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1477">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1478">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1479">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1480">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1481">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1482">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1483">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1484">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1485">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1486">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1487">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1488">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1489">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1490">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1491">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1492">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1493">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1494">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1495">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1496">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1497">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1498">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1499">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1500">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1501">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1502">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1503">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1504">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1505">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1506">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1507">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1508">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1509">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1510">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1511">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1512">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1513">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1514">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1515">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1516">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1517">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1518">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1519">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1520">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1521">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1522">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1523">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1524">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1525">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1526">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1527">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1528">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1529">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1530">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1531">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1532">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1533">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1534">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1535">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1536">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1537">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1538">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1539">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1540">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1541">
-        <v>1.0006497725795971</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
